--- a/BalanceSheet/GLW_bal.xlsx
+++ b/BalanceSheet/GLW_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>44000000.0</v>
+        <v>2361000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>183000000.0</v>
+        <v>2438000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>187000000.0</v>
+        <v>2581000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>120000000.0</v>
+        <v>2235000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-67000000.0</v>
+        <v>2347000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2320000000.0</v>
@@ -1967,19 +1967,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-27000000.0</v>
+        <v>1272000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>196000000.0</v>
+        <v>1174000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>96000000.0</v>
+        <v>1176000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-28000000.0</v>
+        <v>1109000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-207000000.0</v>
+        <v>1250000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1587000000.0</v>
@@ -3006,19 +3006,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>121000000.0</v>
+        <v>-992000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>76000000.0</v>
+        <v>-808000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>34000000.0</v>
+        <v>-926000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-90000000.0</v>
+        <v>-993000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-40000000.0</v>
+        <v>-930000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>-832000000.0</v>
@@ -5038,7 +5038,7 @@
         <v>6437000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>5818000000.0</v>
+        <v>5306000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>5254000000.0</v>
@@ -5165,7 +5165,7 @@
         <v>8462000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>8252000000.0</v>
+        <v>7740000000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>6225000000.0</v>
